--- a/Data/Litter.xlsx
+++ b/Data/Litter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helen\Documents\GitHub\Buffelgrass\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980FB3EB-EDCA-4C80-B5BF-B616215F904C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA36B9FD-D23B-4D80-B29E-012BE7DDCE49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" xr2:uid="{9CB9DABF-F481-415A-BCC6-FA641B849E2B}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="68">
   <si>
     <t>Block</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>UnInvaded Control</t>
+  </si>
+  <si>
+    <t>Treatment</t>
   </si>
 </sst>
 </file>
@@ -589,7 +592,7 @@
   <dimension ref="A1:R156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D159" sqref="D159"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -611,7 +614,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
